--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" tabRatio="809"/>
+    <workbookView windowWidth="20150" windowHeight="9080" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="CastProto" sheetId="6" r:id="rId1"/>
@@ -27,17 +27,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>cs</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>总时长</t>
   </si>
   <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>状态技能</t>
+  </si>
+  <si>
     <t>目标选择模式</t>
   </si>
   <si>
@@ -65,9 +77,30 @@
     <t>命中自身Buff</t>
   </si>
   <si>
+    <t>结束行为</t>
+  </si>
+  <si>
+    <t>技能开始时的特效</t>
+  </si>
+  <si>
+    <t>技能命中的特效</t>
+  </si>
+  <si>
+    <t>出手动画</t>
+  </si>
+  <si>
+    <t>命中动画</t>
+  </si>
+  <si>
     <t>TotalTime</t>
   </si>
   <si>
+    <t>CoolDown</t>
+  </si>
+  <si>
+    <t>StatusSkill</t>
+  </si>
+  <si>
     <t>SelectType</t>
   </si>
   <si>
@@ -95,6 +128,21 @@
     <t>SelfBuffs</t>
   </si>
   <si>
+    <t>FinishAction</t>
+  </si>
+  <si>
+    <t>StartEffect</t>
+  </si>
+  <si>
+    <t>HitEffect</t>
+  </si>
+  <si>
+    <t>StartAnimation</t>
+  </si>
+  <si>
+    <t>HitAnimation</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -102,6 +150,42 @@
   </si>
   <si>
     <t>int[]</t>
+  </si>
+  <si>
+    <t>"5"</t>
+  </si>
+  <si>
+    <t>#火球术</t>
+  </si>
+  <si>
+    <t>火球术的释放</t>
+  </si>
+  <si>
+    <t>火球术的伤害结算</t>
+  </si>
+  <si>
+    <t>#虚空法球</t>
+  </si>
+  <si>
+    <t>虚空法球释放</t>
+  </si>
+  <si>
+    <t>虚空法球结算</t>
+  </si>
+  <si>
+    <t>#野蛮冲撞</t>
+  </si>
+  <si>
+    <t>冲撞</t>
+  </si>
+  <si>
+    <t>0,0,1009,1011</t>
+  </si>
+  <si>
+    <t>0,0,1,800</t>
+  </si>
+  <si>
+    <t>冲撞范围结算</t>
   </si>
 </sst>
 </file>
@@ -286,12 +370,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -618,7 +720,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,16 +744,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -660,96 +762,99 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,149 +1175,468 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.60909090909091" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3636363636364" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5454545454545" style="1" customWidth="1"/>
-    <col min="10" max="11" width="20.2727272727273" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.8181818181818" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.4545454545455" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.8181818181818" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="9.60909090909091" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.5454545454545" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.5454545454545" style="4" customWidth="1"/>
+    <col min="6" max="8" width="16.7272727272727" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.6363636363636" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.3636363636364" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.5454545454545" style="4" customWidth="1"/>
+    <col min="13" max="14" width="20.2727272727273" style="4" customWidth="1"/>
+    <col min="15" max="15" width="15.8181818181818" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.4545454545455" style="4" customWidth="1"/>
+    <col min="17" max="19" width="17.9090909090909" style="4" customWidth="1"/>
+    <col min="20" max="20" width="17" style="4" customWidth="1"/>
+    <col min="21" max="21" width="17.0909090909091" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" ht="16.5" spans="1:21">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:13">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" ht="16.5" spans="1:21">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:21">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:21">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="K6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2001</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2</v>
+      </c>
+      <c r="T6" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="U6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:20">
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="N8" s="1">
+        <v>500</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:21">
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="3:20">
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L11" s="2">
+        <v>500</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="3:21">
+      <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1008</v>
+      </c>
+      <c r="U12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="3:20">
+      <c r="C14" s="3">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="3:21">
+      <c r="C15" s="3">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:13">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:13">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>24</v>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1012</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20150" windowHeight="9080" tabRatio="809"/>
+    <workbookView windowHeight="17680" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="CastProto" sheetId="6" r:id="rId1"/>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="U6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:1">
@@ -1475,7 +1475,7 @@
         <v>500</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="3:21">
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:1">
@@ -1544,7 +1544,7 @@
         <v>500</v>
       </c>
       <c r="T11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="3:21">
@@ -1567,7 +1567,7 @@
         <v>1008</v>
       </c>
       <c r="U12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:1">
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="3:21">
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
